--- a/Horror Land Notes.xlsx
+++ b/Horror Land Notes.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="23955" windowHeight="4680"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="23955" windowHeight="4680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Directions" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Locations" sheetId="2" r:id="rId2"/>
+    <sheet name="Map" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Start</t>
   </si>
@@ -37,6 +37,69 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>Entrance</t>
+  </si>
+  <si>
+    <t>Death by Coaster</t>
+  </si>
+  <si>
+    <t>Haunted Mansion</t>
+  </si>
+  <si>
+    <t>Maze</t>
+  </si>
+  <si>
+    <t>Insect Infestation</t>
+  </si>
+  <si>
+    <t>Creepy Concessions</t>
+  </si>
+  <si>
+    <t>4
+Insect Infestation</t>
+  </si>
+  <si>
+    <t>1
+Death by Coaster</t>
+  </si>
+  <si>
+    <t>2
+Haunted Mansion</t>
+  </si>
+  <si>
+    <t>3
+Maze</t>
+  </si>
+  <si>
+    <t>6
+Circus of Horrors</t>
+  </si>
+  <si>
+    <t>5
+Creepy Concessions</t>
+  </si>
+  <si>
+    <t>Sneaking quietly along the walkway, the monstrous roller coaster comes into view. Already voted "Most terrifying ride in the world", twists and turns through the night sky like a snake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like a demented Disney castle, the centerpiece of the park is the Haunted Mansion. Modeled after the Winchester Mystery House, it's supposedly filled with weird rooms and dead ends. </t>
+  </si>
+  <si>
+    <t>Taking off of the thousands of cornmazes that arrise during the Halloween season, the creators of the Mind-bending Maze bragged about using illusions and homeopathic substances to confuse and disorient people.</t>
+  </si>
+  <si>
+    <t>The Insect Infestation attraction is part zoo/part 'hands on experience' that is quote 'intended to education as well as terrify' unquote. You did NOT want to know what they meant by that.</t>
+  </si>
+  <si>
+    <t>This place doesn't look that bad. Yeah, it says "Creepy Confections," but how bad can a few restaurants be?</t>
+  </si>
+  <si>
+    <t>Circus of Horrors</t>
+  </si>
+  <si>
+    <t>A large red and white striped, tent-like building. 'Circus of Horrors.' Oh God. This is the LAST place you wanted to be. Coulrophobia is NOT for the faint of heart. Does that say 'Side Show', too??</t>
   </si>
 </sst>
 </file>
@@ -60,15 +123,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,16 +151,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -93,6 +204,68 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="2247900"/>
+          <a:ext cx="238125" cy="200026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="600"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -429,205 +602,205 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>3</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
         <v>4</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
         <v>2</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>5</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>3</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>6</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>3</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>3</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>4</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>5</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>4</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>2</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>5</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>6</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>5</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
         <v>3</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="4">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1">
-        <v>6</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="J9" s="3">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3">
         <v>5</v>
       </c>
     </row>
@@ -652,24 +825,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="63" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="30.7109375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="63" customHeight="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" ht="63" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="63" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Horror Land Notes.xlsx
+++ b/Horror Land Notes.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="23955" windowHeight="4680" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="23955" windowHeight="4680"/>
   </bookViews>
   <sheets>
-    <sheet name="Directions" sheetId="1" r:id="rId1"/>
-    <sheet name="Locations" sheetId="2" r:id="rId2"/>
-    <sheet name="Map" sheetId="3" r:id="rId3"/>
+    <sheet name="New Map" sheetId="4" r:id="rId1"/>
+    <sheet name="Directions" sheetId="1" r:id="rId2"/>
+    <sheet name="Locations" sheetId="2" r:id="rId3"/>
+    <sheet name="Map" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Start</t>
   </si>
@@ -100,6 +101,64 @@
   </si>
   <si>
     <t>A large red and white striped, tent-like building. 'Circus of Horrors.' Oh God. This is the LAST place you wanted to be. Coulrophobia is NOT for the faint of heart. Does that say 'Side Show', too??</t>
+  </si>
+  <si>
+    <t>1002
+Circus of Horrors</t>
+  </si>
+  <si>
+    <t>1003
+Severed Stadium</t>
+  </si>
+  <si>
+    <t>SW
+1
+Haunted Mansion</t>
+  </si>
+  <si>
+    <t>SE
+2001
+Death by Coaster</t>
+  </si>
+  <si>
+    <t>S
+1001
+Maze</t>
+  </si>
+  <si>
+    <t>E
+2002
+Insect Infestation</t>
+  </si>
+  <si>
+    <t>W
+2
+Creepy Concessions</t>
+  </si>
+  <si>
+    <t>NE
+2004
+Country Cabal</t>
+  </si>
+  <si>
+    <t>E
+2003
+Acrid Aquarium</t>
+  </si>
+  <si>
+    <t>N
+1004
+Safe Zone</t>
+  </si>
+  <si>
+    <t>NW
+4
+Children's Show</t>
+  </si>
+  <si>
+    <t>W
+3
+Zombie Zoo</t>
   </si>
 </sst>
 </file>
@@ -170,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,6 +256,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,6 +278,68 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="2247900"/>
+          <a:ext cx="238125" cy="200026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="600"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -553,6 +686,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="63" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="30.7109375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="63" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="63" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="63" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" s="11" customFormat="1" ht="63" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" s="11" customFormat="1" ht="63" customHeight="1"/>
+    <row r="6" spans="1:4" s="11" customFormat="1" ht="63" customHeight="1"/>
+    <row r="7" spans="1:4" s="11" customFormat="1" ht="63" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -823,11 +1026,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -917,7 +1120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
